--- a/medicine/Premiers secours et secourisme/Sociedad_de_Salvamento_y_Seguridad_Marítima/Sociedad_de_Salvamento_y_Seguridad_Marítima.xlsx
+++ b/medicine/Premiers secours et secourisme/Sociedad_de_Salvamento_y_Seguridad_Marítima/Sociedad_de_Salvamento_y_Seguridad_Marítima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Sociedad Estatal de Salvamento y Seguridad Marítima, aussi connue sous les abréviations de SASEMAR et de Salvamento Marítimo est un établissement public chargé de la sûreté maritime dans les eaux espagnoles. Il est placé sous la dépendance directe du ministère de l'Équipement via la Direction générale de la Marine marchande.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première société de sauvetage en mer d’Espagne, la Sociedad Española de Salvamento de Náufragos, créée en 1880, était similaire à la Royal National Lifeboat Institution du Royaume-Uni. Comme son homologue britannique, cette société avait une gestion locale, avec des volontaires, et sans aucun système de coordination.
 Avec le temps, cette société va disparaître, et son rôle fut rempli par l'Armée, l'agence Estatale Remolques Marítimos, pour les sauvetages en haute mer ; et la Croix-Rouge pour les sauvetages sur les plages et les côtes.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Collaboration avec des autres organismes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Salvamento Marítimo, en plus de ses moyens propres, prend en charge la responsabilité de l'intervention des moyens des autres administrations et institutions collaboratrices. Ces institutions et organismes sont :
 Services d'urgence des Communautés autonomes ;
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Centres de sauvetage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Salvamento Marítimo a un réseau de 22 centres pour la gestion des différents moyens disponibles. Ceux-ci se divisent en un Centre national de coordination de sauvetage (CNCS), situé au siège de l'Établissement, à Madrid, et vingt-et-un Centres de Coordination de Sauvetage (CCS), repartis par la côte.
 Centros de Coordinación de Salvamento de la zone atlantique
@@ -629,7 +647,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,47 +665,164 @@
           <t>Unités de sauvetage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">[Quand ?]
-Unités maritimes
-Pour la réalisation de ses tâches, la Sociedad Estatal de Salvamento y Segurida Marítima dispose de moyens maritimes et aériens. Dans les unités maritimes, on peut compter quatre navires polyvalents, douze remorqueurs de hauteur, quatre embarcations d’intervention rapide ainsi que trente-neuf bateaux de petite taille.
-Navires polyvalents
-Classe Luz de Mar
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Unités de sauvetage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Unités maritimes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la réalisation de ses tâches, la Sociedad Estatal de Salvamento y Segurida Marítima dispose de moyens maritimes et aériens. Dans les unités maritimes, on peut compter quatre navires polyvalents, douze remorqueurs de hauteur, quatre embarcations d’intervention rapide ainsi que trente-neuf bateaux de petite taille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Unités de sauvetage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Unités maritimes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Navires polyvalents</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classe Luz de Mar
 Classe Don Inda
-Remorqueurs de hauteur
-Salvamento Marítimo a 10 remorqueurs de hauteur en propriété.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Unités de sauvetage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Unités maritimes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Remorqueurs de hauteur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salvamento Marítimo a 10 remorqueurs de hauteur en propriété.
 Classe María de Maetzu
  Autres 
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sociedad_de_Salvamento_y_Seguridad_Marítima</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sociedad_de_Salvamento_y_Seguridad_Mar%C3%ADtima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Remorqueur de la classe Luz de Mar.
